--- a/bs/bs.xlsx
+++ b/bs/bs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24735" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29370,7 +29370,7 @@
         <v>530</v>
       </c>
       <c r="O64" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>34</v>

--- a/bs/bs.xlsx
+++ b/bs/bs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
